--- a/BD paper/catalogos/waveform_5_0.5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_5_0.5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,31 @@
           <t>Estación más cercana 5</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -540,6 +565,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:11:56</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:11:56</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:11:58</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:12:03</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:12:06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -587,6 +637,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:09</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:09</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:12</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:16</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:20</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -634,6 +709,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:26</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:26</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:29</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:32</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:37</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -681,6 +781,31 @@
           <t>TA01</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:38</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:43</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:45</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:47</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -728,6 +853,31 @@
           <t>TA02</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:28</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:33</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:35</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:37</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:41</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -775,6 +925,31 @@
           <t>PB02</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:16</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:18</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:22</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:23</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:29</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -822,6 +997,31 @@
           <t>PB02</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:39</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:40</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:45</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:49</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:54</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -869,6 +1069,31 @@
           <t>AC07</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:18</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:26</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:27</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:28</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:30</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -916,6 +1141,31 @@
           <t>TA02</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:48</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:49</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:49</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:53</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -963,6 +1213,31 @@
           <t>CO04</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:35</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:37</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:40</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:44</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:48</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1010,6 +1285,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:03</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:04</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:05</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:10</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:13</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1057,6 +1357,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:02</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:02</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:07</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:10</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1104,6 +1429,31 @@
           <t>CO05</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:58:52</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:01</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:02</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:03</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1151,6 +1501,31 @@
           <t>CO04</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:36</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:39</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:40</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:45</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:48</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1198,6 +1573,31 @@
           <t>CO05</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:39</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:47</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:48</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:49</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:50</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1245,6 +1645,31 @@
           <t>BO03</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:09</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:10</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:13</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:18</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:23</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1292,6 +1717,31 @@
           <t>BO03</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:37</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:39</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:41</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:46</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:51</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1339,6 +1789,31 @@
           <t>CO04</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:05:58</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:05:59</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:06:04</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:06:06</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:06:14</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1386,6 +1861,31 @@
           <t>TA02</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:23</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:23</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:28</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:32</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:32</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1433,6 +1933,31 @@
           <t>AC07</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:54:55</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:08</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:10</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:18</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1480,6 +2005,31 @@
           <t>GO03</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:04</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:15</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:17</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:19</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:23</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1527,6 +2077,31 @@
           <t>PB04</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:17</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:24</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:31</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:36</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:38</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1574,6 +2149,31 @@
           <t>GO03</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:44:48</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:02</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:02</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:05</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:08</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1621,6 +2221,31 @@
           <t>PB04</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:34</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:46</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:53</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:55</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:06:02</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1668,6 +2293,31 @@
           <t>AC04</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:36</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:42</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:43</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:43</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:51</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1715,6 +2365,31 @@
           <t>GO03</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:40</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:51</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:53</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:55</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:59</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1762,6 +2437,31 @@
           <t>VA01</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:21</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:25</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:27</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:30</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:33</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1809,6 +2509,31 @@
           <t>CO06</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:29</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:29</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:29</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:36</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:39</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1856,6 +2581,31 @@
           <t>AC07</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:08</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:21</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:29</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:34</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1903,6 +2653,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:42</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:50</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:52</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:52</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:55</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1950,6 +2725,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:31</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:39</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:41</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:41</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:43</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1997,6 +2797,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:31:58</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:04</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:06</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:06</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:10</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2044,6 +2869,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:13</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:18</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:18</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:19</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:23</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2089,6 +2939,31 @@
       <c r="K35" t="inlineStr">
         <is>
           <t>IN40</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:11:52</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:11:54</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:12:00</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:12:01</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:12:01</t>
         </is>
       </c>
     </row>
